--- a/src/main/resources/templates/node_template.xlsx
+++ b/src/main/resources/templates/node_template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>#title</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>$serial_number</t>
+  </si>
+  <si>
+    <t>$data_index</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1059,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="33.75" outlineLevelCol="5"/>
@@ -1105,7 +1108,9 @@
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7"/>
